--- a/excel/base/ExcelCheatsheet.xlsx
+++ b/excel/base/ExcelCheatsheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiedar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiedar/Documents/work/personal/cheatsheet/excel/base/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -313,10 +313,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,34 +640,34 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="8"/>

--- a/excel/base/ExcelCheatsheet.xlsx
+++ b/excel/base/ExcelCheatsheet.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Open Replace window</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>????????</t>
+  </si>
+  <si>
+    <t>v0.1.1</t>
   </si>
 </sst>
 </file>
@@ -640,7 +643,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -670,7 +673,9 @@
       <c r="A3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>

--- a/excel/base/ExcelCheatsheet.xlsx
+++ b/excel/base/ExcelCheatsheet.xlsx
@@ -209,14 +209,14 @@
     <t>????????</t>
   </si>
   <si>
-    <t>v0.1.1</t>
+    <t>v0.1.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -247,13 +247,6 @@
       <name val="Helvetica Light"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Source Han Code JP R"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Source Han Code JP R"/>
@@ -270,6 +263,17 @@
       <color theme="1"/>
       <name val="Source Han Code JP H"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Lucida Grande Bold"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Lucida Grande Bold"/>
     </font>
   </fonts>
   <fills count="2">
@@ -301,25 +305,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,460 +654,407 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="15" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="15" customWidth="1"/>
     <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="A4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="16"/>
     </row>
     <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="4" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="15" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-    </row>
-    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-    </row>
-    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-    </row>
-    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/excel/base/ExcelCheatsheet.xlsx
+++ b/excel/base/ExcelCheatsheet.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26709"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17080" yWindow="460" windowWidth="21320" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Keymap" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keymap!$D$5:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Keymap!$A$31:$B$38</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Open Replace window</t>
   </si>
@@ -197,26 +197,52 @@
     <t>Utility</t>
   </si>
   <si>
-    <t xml:space="preserve">　　 Excel 2016 for Mac </t>
-  </si>
-  <si>
-    <t>　　　 DEFAULT OS X KEYMAP</t>
-  </si>
-  <si>
     <t>Merge Cells</t>
   </si>
   <si>
     <t>????????</t>
   </si>
   <si>
-    <t>v0.1.2</t>
+    <t>Delete rows which contains blank cell</t>
+  </si>
+  <si>
+    <t>Find =&gt; Go to =&gt; special</t>
+  </si>
+  <si>
+    <t>Techniques</t>
+  </si>
+  <si>
+    <t>v0.2</t>
+  </si>
+  <si>
+    <t>DEFAULT OS X KEYMAP(v0.2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =&gt;Blanks =&gt; Delete (entire row)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Excel 2016 for Mac </t>
+  </si>
+  <si>
+    <t>Delete current sheet</t>
+  </si>
+  <si>
+    <t>Move or Copy current sheet</t>
+  </si>
+  <si>
+    <t>⌘ ⌥ D
+* Custom keyboard shortcut</t>
+  </si>
+  <si>
+    <t>⌘ ⌥ M
+* Custom keyboard shortcut</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -229,51 +255,78 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Source Han Code JP R"/>
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Lucida Grande Bold"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Lucida Grande Bold"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Source Han Code JP R"/>
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Lucida Grande Bold"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Helvetica Light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Helvetica Light"/>
+      <name val="Montserrat"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Montserrat Light"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Source Han Code JP R"/>
-      <charset val="128"/>
+      <name val="Montserrat Light"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Montserrat"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Source Han Code JP R"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Source Han Code JP H"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Lucida Grande Bold"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Lucida Grande Bold"/>
+      <name val="Montserrat"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -301,30 +354,116 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,15 +483,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>107462</xdr:colOff>
+      <xdr:colOff>68262</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:rowOff>37149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>500477</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>83585</xdr:rowOff>
+      <xdr:colOff>350299</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>164631</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -369,8 +508,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="107462" y="29308"/>
-          <a:ext cx="393015" cy="385186"/>
+          <a:off x="68262" y="37149"/>
+          <a:ext cx="282037" cy="292112"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -645,423 +784,528 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="15" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="22.1640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="3"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="12"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="12"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="13"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="13"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="12"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="12"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="12"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="12"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="12"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="12"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A26" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="12"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" ht="13" x14ac:dyDescent="0.2">
+      <c r="A27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="12"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="6"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="6"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="6"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="6"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="6"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="6"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="6"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="6"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="26"/>
+      <c r="G36" s="26"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="26"/>
+      <c r="G37" s="26"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="26"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="B39" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+      <c r="D40" s="16"/>
+      <c r="G40" s="26"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="C48" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="2">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A1:C2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
